--- a/C班様用_内部設計書.xlsx
+++ b/C班様用_内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Google ドライブ\やぶきAのおまけフォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,18 +14,20 @@
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
     <sheet name="処理" sheetId="8" r:id="rId2"/>
-    <sheet name="物理データ" sheetId="12" r:id="rId3"/>
+    <sheet name="処理 (2)" sheetId="15" r:id="rId3"/>
+    <sheet name="物理データ" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">処理!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -376,10 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.3.4.5.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザの選択情報処理</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -390,10 +388,6 @@
     <rPh sb="8" eb="10">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.8.9.10.11.12.13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,11 +524,46 @@
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>管理者用のデータ追加処理</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.14.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者データ記入</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1172,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1432,8 +1470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9597840" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9669278" y="3924861"/>
+          <a:ext cx="750794" cy="432828"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1661,14 +1699,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147118</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>168727</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76519</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1677,8 +1715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="418459" y="2020101"/>
-          <a:ext cx="1367117" cy="433666"/>
+          <a:off x="430866" y="2290243"/>
+          <a:ext cx="1380924" cy="429464"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1721,7 +1759,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>選択した情報の画面を表示</a:t>
+            <a:t>選択された節のデータを抽出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1731,15 +1769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>269581</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131269</xdr:rowOff>
+      <xdr:colOff>264078</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>270020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147119</xdr:rowOff>
+      <xdr:colOff>264518</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1750,11 +1788,11 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="926225" y="1843869"/>
-          <a:ext cx="352026" cy="439"/>
+        <a:xfrm flipH="1">
+          <a:off x="1121328" y="1738611"/>
+          <a:ext cx="440" cy="551632"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1781,28 +1819,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>267180</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76519</xdr:rowOff>
+      <xdr:colOff>264078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>269581</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105656</xdr:rowOff>
+      <xdr:colOff>264438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53027</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="136" idx="2"/>
-          <a:endCxn id="145" idx="0"/>
+          <a:endCxn id="52" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1099617" y="2453767"/>
-          <a:ext cx="2401" cy="365313"/>
+        <a:xfrm>
+          <a:off x="1121328" y="2719707"/>
+          <a:ext cx="360" cy="690883"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1831,218 +1869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171242</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147276</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="フローチャート : 定義済み処理 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="421660" y="5281171"/>
-          <a:ext cx="1366431" cy="437029"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗予想の結果を表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2242</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>120063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>168728</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19211</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="140" name="グループ化 139"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="421342" y="4425363"/>
-          <a:ext cx="1366636" cy="584948"/>
-          <a:chOff x="376199" y="4910121"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="141" name="ひし形 140"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="376199" y="4910121"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="454551" y="5012329"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>勝敗予想</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>2239</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>41622</xdr:rowOff>
+      <xdr:rowOff>124965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>169608</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131268</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2051,8 +1886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="418457" y="1242252"/>
-          <a:ext cx="1368000" cy="425823"/>
+          <a:off x="430864" y="1315590"/>
+          <a:ext cx="1381807" cy="423021"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2095,7 +1930,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>選択情報の送信</a:t>
+            <a:t>決定ボタン押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2105,15 +1940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>516830</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>46023</xdr:rowOff>
+      <xdr:colOff>493017</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>708931</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>86846</xdr:rowOff>
+      <xdr:colOff>685118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2122,8 +1957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133679" y="4272241"/>
-          <a:ext cx="976513" cy="713176"/>
+          <a:off x="2136080" y="2153430"/>
+          <a:ext cx="977913" cy="707573"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2159,87 +1994,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>対戦表</a:t>
+            <a:t>DB</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3842</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>162324</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="420060" y="2777458"/>
-          <a:ext cx="1359113" cy="416218"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗を予測する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2315,511 +2079,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>管理者のログイン</a:t>
+            <a:t>決定ボタン押下</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122304</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>75241</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="ひし形 146"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524090" y="1880988"/>
-          <a:ext cx="1352710" cy="571501"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ぱ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>322409</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>744390</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128067</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076905" y="1832963"/>
-          <a:ext cx="1206393" cy="672352"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>エラーメッセージ付き管理者ログイン画面を表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338417</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122303</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524089" y="2641385"/>
-          <a:ext cx="1352710" cy="576304"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>管理者用専用データ選択送信画面の表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>218354</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3436044" y="3521848"/>
-          <a:ext cx="1536806" cy="425823"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>終了した試合の勝敗を入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338416</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>64033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122302</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>59232</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="ひし形 150"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524088" y="4290251"/>
-          <a:ext cx="1352710" cy="667552"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>362427</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="テキスト ボックス 151"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3548099" y="4506365"/>
-          <a:ext cx="1313180" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>管理者の入力の正誤処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>306401</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>736386</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72035</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5060897" y="4274244"/>
-          <a:ext cx="1214397" cy="696362"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>エラーメッセージ付き管理者用データ選択送信画面の表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2925,289 +2186,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>208109</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>166486</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="416218" y="3601090"/>
-          <a:ext cx="1367117" cy="433666"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>計算処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>267180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>267340</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47224</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="176" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="145" idx="2"/>
-          <a:endCxn id="155" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1099617" y="3193676"/>
-          <a:ext cx="160" cy="407414"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>267340</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>269582</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>120063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="177" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="155" idx="2"/>
-          <a:endCxn id="141" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1099777" y="4034756"/>
-          <a:ext cx="2242" cy="311525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>269582</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>272439</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46423</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="178" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="141" idx="2"/>
-          <a:endCxn id="139" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1102019" y="4917782"/>
-          <a:ext cx="2857" cy="363389"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400211</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8005</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276247" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3585883" y="2049076"/>
-          <a:ext cx="1276247" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>パスワード問い合わせ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>230361</xdr:colOff>
+      <xdr:colOff>225978</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
@@ -3215,20 +2195,20 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>230801</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>8005</xdr:rowOff>
+      <xdr:rowOff>61393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="179" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="146" idx="2"/>
-          <a:endCxn id="147" idx="0"/>
+          <a:endCxn id="46" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4200445" y="1682483"/>
-          <a:ext cx="440" cy="198505"/>
+          <a:off x="4226478" y="1669676"/>
+          <a:ext cx="4823" cy="249092"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3270,10 +2250,7 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="180" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="147" idx="2"/>
-          <a:endCxn id="149" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -3320,10 +2297,7 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="183" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="149" idx="2"/>
-          <a:endCxn id="150" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
@@ -3370,10 +2344,7 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="187" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="150" idx="2"/>
-          <a:endCxn id="151" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -3421,7 +2392,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="191" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="151" idx="2"/>
           <a:endCxn id="154" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -3454,312 +2424,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122302</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>306401</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61632</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="151" idx="3"/>
-          <a:endCxn id="153" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4876798" y="4622425"/>
-          <a:ext cx="184099" cy="1602"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>218354</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12806</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129188</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48026</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="153" idx="0"/>
-          <a:endCxn id="150" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5050731" y="3656879"/>
-          <a:ext cx="539484" cy="695246"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123186</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>141195</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128068</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="201" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="148" idx="0"/>
-          <a:endCxn id="146" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5097197" y="1250057"/>
-          <a:ext cx="363391" cy="802421"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122304</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125668</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>322409</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128068</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="147" idx="3"/>
-          <a:endCxn id="148" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="2166739"/>
-          <a:ext cx="200105" cy="2400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256135</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>24012</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="378758" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="テキスト ボックス 208"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4226219" y="2401260"/>
-          <a:ext cx="378758" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Yes</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>16009</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24013</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="350096" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="テキスト ボックス 209"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4770505" y="1896996"/>
-          <a:ext cx="350096" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3813,23 +2477,296 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213811</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172188</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428124" y="3410590"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>情報選択画面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493017</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149779</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="3"/>
+          <a:endCxn id="144" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1811790" y="2504975"/>
+          <a:ext cx="324290" cy="2242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>737107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524463" y="1375723"/>
+          <a:ext cx="1356394" cy="423021"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログインボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>724480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="ひし形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6512719" y="2226470"/>
+          <a:ext cx="1355511" cy="567299"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ぱ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>776407</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>288012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:ext cx="1051698" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="テキスト ボックス 211"/>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4746491" y="4362290"/>
-          <a:ext cx="350096" cy="264560"/>
+          <a:off x="6645950" y="2381251"/>
+          <a:ext cx="1051698" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3857,10 +2794,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>パスワードの正誤</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3868,29 +2805,177 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>168728</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66434</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>516830</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69637</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>732284</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6488907" y="3333750"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ記入画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>724480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>48245</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="213" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="141" idx="3"/>
-          <a:endCxn id="144" idx="2"/>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="86" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1785577" y="4628829"/>
-          <a:ext cx="348102" cy="3203"/>
+        <a:xfrm>
+          <a:off x="7868230" y="2510120"/>
+          <a:ext cx="895390" cy="809343"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7190475" y="1798744"/>
+          <a:ext cx="12185" cy="427726"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3918,29 +3003,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>708931</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61632</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38721</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338416</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66434</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="144" idx="4"/>
-          <a:endCxn id="151" idx="1"/>
+          <a:stCxn id="73" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3110192" y="4624027"/>
-          <a:ext cx="413896" cy="4802"/>
+        <a:xfrm flipH="1">
+          <a:off x="7182471" y="2793769"/>
+          <a:ext cx="8004" cy="539981"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3968,71 +3053,99 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>162324</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104054</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140493</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>46023</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>741808</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59390</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="229" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="144" idx="1"/>
-          <a:endCxn id="145" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="1557218" y="3207522"/>
-          <a:ext cx="1286674" cy="842763"/>
+        <a:xfrm>
+          <a:off x="8070056" y="3319463"/>
+          <a:ext cx="1387127" cy="430865"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン失敗画面表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>488256</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1075936" cy="225703"/>
+    <xdr:ext cx="300082" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="テキスト ボックス 231"/>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105105" y="4002101"/>
-          <a:ext cx="1075936" cy="225703"/>
+          <a:off x="7179350" y="2807495"/>
+          <a:ext cx="300082" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,9 +3173,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>対戦内容に変更有り</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>正</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4070,21 +3184,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176092</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>40021</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1192571" cy="225703"/>
+    <xdr:ext cx="300082" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="テキスト ボックス 232"/>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1792941" y="2753445"/>
-          <a:ext cx="1192571" cy="225703"/>
+          <a:off x="7974688" y="2281239"/>
+          <a:ext cx="300082" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4112,15 +3226,1236 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>対応する対戦表の表示</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>誤</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321328</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130627</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536016" y="1918768"/>
+          <a:ext cx="1380924" cy="429464"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同カードの勝率を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130767</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536156" y="2631282"/>
+          <a:ext cx="1380924" cy="429464"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ホーム時の勝率を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142674</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="3500437"/>
+          <a:ext cx="1380924" cy="429464"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウェイ時の勝率を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270961</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86463</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485649" y="4348803"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天候での勝率を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918883</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 手操作入力 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9586631" y="3206003"/>
+          <a:ext cx="762002" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 定義済み処理 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9586634" y="3619501"/>
+          <a:ext cx="762000" cy="283508"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9669278" y="3924861"/>
+          <a:ext cx="750794" cy="432828"/>
+          <a:chOff x="336178" y="3787589"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="ひし形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336178" y="3787589"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>判断</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9609045" y="4588809"/>
+          <a:ext cx="762000" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9642662" y="5373221"/>
+          <a:ext cx="683559" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165787</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1023037" y="1845768"/>
+          <a:ext cx="15387" cy="666450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165787</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169188</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023037" y="3079517"/>
+          <a:ext cx="3401" cy="509666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133207</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86264</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="347520" y="1422747"/>
+          <a:ext cx="1381807" cy="423021"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送信ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>118561</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="332874" y="3589183"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送信完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57729</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33456</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1700792" y="2795868"/>
+          <a:ext cx="761539" cy="788552"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57729</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="ひし形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="345281" y="2512218"/>
+          <a:ext cx="1355511" cy="567299"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ぱ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73698</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716636" y="2655094"/>
+          <a:ext cx="646331" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>入力判断</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125704</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727019</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1768767" y="3584420"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>記入失敗画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4449,10 +4784,10 @@
       <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="69">
+      <c r="P1" s="72">
         <v>42534</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -4469,11 +4804,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -4518,17 +4853,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -4539,15 +4874,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4558,15 +4893,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -4614,19 +4949,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="D10" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -4635,17 +4970,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -4654,17 +4989,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -4674,17 +5009,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4695,15 +5030,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4714,15 +5049,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4733,15 +5068,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4752,15 +5087,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4791,15 +5126,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4812,13 +5147,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4831,13 +5166,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4850,13 +5185,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4869,13 +5204,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4888,13 +5223,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4907,13 +5242,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4969,14 +5304,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="54"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="68"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -4990,18 +5325,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="54"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61" t="s">
+      <c r="L29" s="64"/>
+      <c r="M29" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61" t="s">
+      <c r="N29" s="64"/>
+      <c r="O29" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="64"/>
+      <c r="P29" s="67"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5015,12 +5350,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="54"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,12 +5369,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="54"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5053,12 +5388,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="54"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,12 +5407,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="60"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5091,12 +5426,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5110,12 +5445,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5169,8 +5504,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5185,39 +5520,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P1" s="19">
-        <v>42534</v>
+        <f ca="1">TODAY()</f>
+        <v>42538</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5283,58 +5619,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="59">
+        <v>1</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="I6" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
+      <c r="M6" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
+      <c r="M7" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5948,8 +6288,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5964,36 +6304,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="20" t="s">
+      <c r="H1" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P1" s="19">
         <v>42534</v>
@@ -6024,6 +6364,781 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2"/>
@@ -6085,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -6107,10 +7222,10 @@
       <c r="D8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="88"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
@@ -6120,11 +7235,11 @@
       <c r="I8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -6138,18 +7253,18 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="82"/>
+      <c r="E9" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="85"/>
       <c r="G9" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -6163,18 +7278,18 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="82"/>
+      <c r="E10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="85"/>
       <c r="G10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -6188,18 +7303,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="82"/>
+      <c r="E11" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="85"/>
       <c r="G11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -6213,22 +7328,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="82"/>
+      <c r="E12" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="85"/>
       <c r="G12" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -6242,18 +7357,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="82"/>
+      <c r="E13" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="85"/>
       <c r="G13" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -6267,18 +7382,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="26" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -6292,14 +7407,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -6313,14 +7428,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -6334,14 +7449,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -6355,14 +7470,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -6376,14 +7491,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6397,14 +7512,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -6418,14 +7533,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6439,14 +7554,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6460,14 +7575,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6481,14 +7596,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6502,14 +7617,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -6523,14 +7638,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>

--- a/C班様用_内部設計書.xlsx
+++ b/C班様用_内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -391,22 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者の入力情報処理</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小山</t>
     <rPh sb="0" eb="2">
       <t>オヤマ</t>
@@ -542,10 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11.14.15</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,11 +539,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.4.5.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.4.5.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの選択情報処理</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,7 +635,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,33 +1194,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1246,6 +1230,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,13 +1290,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,8 +1487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9669278" y="3924861"/>
-          <a:ext cx="750794" cy="432828"/>
+          <a:off x="9571863" y="4059077"/>
+          <a:ext cx="750794" cy="452310"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1697,197 +1714,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99493</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>168727</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28894</xdr:rowOff>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154336</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="146" name="フローチャート : 手操作入力 51"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="430866" y="2290243"/>
-          <a:ext cx="1380924" cy="429464"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>選択された節のデータを抽出</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264078</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264518</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99493</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="カギ線コネクタ 136"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="143" idx="2"/>
-          <a:endCxn id="136" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1121328" y="1738611"/>
-          <a:ext cx="440" cy="551632"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264078</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53027</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="136" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1121328" y="2719707"/>
-          <a:ext cx="360" cy="690883"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2239</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>124965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>169608</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="430864" y="1315590"/>
-          <a:ext cx="1381807" cy="423021"/>
+          <a:off x="277803" y="1285621"/>
+          <a:ext cx="1350105" cy="436010"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1939,276 +1785,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>493017</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129367</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685118</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2136080" y="2153430"/>
-          <a:ext cx="977913" cy="707573"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338416</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123185</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524088" y="1256660"/>
-          <a:ext cx="1353593" cy="425823"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>決定ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>346421</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>130307</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3532093" y="5266766"/>
-          <a:ext cx="1352710" cy="472248"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信成功画面の表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>225978</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230801</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61393</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126027</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="180" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="146" idx="2"/>
+          <a:stCxn id="50" idx="2"/>
           <a:endCxn id="46" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4226478" y="1669676"/>
-          <a:ext cx="4823" cy="249092"/>
+        <a:xfrm>
+          <a:off x="952500" y="2402593"/>
+          <a:ext cx="4800" cy="239210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2236,356 +1835,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>75241</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124528</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230361</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="180" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4200444" y="2452489"/>
-          <a:ext cx="1" cy="188896"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234363</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10564</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126027</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="183" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200444" y="3217689"/>
-          <a:ext cx="4003" cy="346741"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230359</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234363</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>64033</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="187" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4200443" y="3947671"/>
-          <a:ext cx="4004" cy="342580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230359</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>59232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238364</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32018</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="191" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="154" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200443" y="4957803"/>
-          <a:ext cx="8005" cy="308963"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>240126</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48026</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="378758" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="テキスト ボックス 210"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4210210" y="4946597"/>
-          <a:ext cx="378758" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Yes</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213811</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>172188</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>150517</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428124" y="3410590"/>
-          <a:ext cx="1387127" cy="430865"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>情報選択画面</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>168727</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>493017</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149779</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="136" idx="3"/>
-          <a:endCxn id="144" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1811790" y="2504975"/>
-          <a:ext cx="324290" cy="2242"/>
+          <a:off x="955801" y="3084256"/>
+          <a:ext cx="1499" cy="204063"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3237,16 +2509,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321328</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61393</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78873</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>130627</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157482</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3255,8 +2527,1973 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3536016" y="1918768"/>
-          <a:ext cx="1380924" cy="429464"/>
+          <a:off x="286691" y="2641803"/>
+          <a:ext cx="1341218" cy="442453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ホームでの勝率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277090" y="1953643"/>
+          <a:ext cx="1350819" cy="448950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同カードの勝率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67216</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25976</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275034" y="3288319"/>
+          <a:ext cx="1361533" cy="469727"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>C:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天候での勝率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2086843" y="1974272"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝敗結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60613</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34844</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268431" y="4009158"/>
+          <a:ext cx="1377004" cy="469727"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355021</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2649682"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝敗結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355022</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="3316431"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天候</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121583</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="146" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="952500" y="1721631"/>
+          <a:ext cx="356" cy="232012"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124528</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="955801" y="3758046"/>
+          <a:ext cx="1132" cy="251112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346362</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2086841" y="4035136"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113281</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684068</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3282508" y="1281545"/>
+          <a:ext cx="1350105" cy="436010"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>決定ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13460</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31341</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="2"/>
+          <a:endCxn id="206" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3957205" y="2398517"/>
+          <a:ext cx="4800" cy="239210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11961</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158311</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="206" idx="2"/>
+          <a:endCxn id="208" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3960506" y="3080180"/>
+          <a:ext cx="1499" cy="204063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122169</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291396" y="2637727"/>
+          <a:ext cx="1341218" cy="442453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウェイでの勝率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112568</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281795" y="1949567"/>
+          <a:ext cx="1350819" cy="448950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同カードの勝率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110512</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692727</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279739" y="3284243"/>
+          <a:ext cx="1361533" cy="469727"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>C:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天候での勝率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5082889" y="1952878"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝敗結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701595</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3273136" y="4005082"/>
+          <a:ext cx="1377004" cy="469727"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233793</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5091545" y="2645606"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝敗結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372342</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5100206" y="3312355"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天候</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9016</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35908</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="2"/>
+          <a:endCxn id="207" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3957205" y="1717555"/>
+          <a:ext cx="356" cy="232012"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11961</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13093</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="2"/>
+          <a:endCxn id="210" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3960506" y="3753970"/>
+          <a:ext cx="1132" cy="251112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="カギ線コネクタ 216"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1627909" y="2178118"/>
+          <a:ext cx="458934" cy="3973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="164" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1627909" y="2857501"/>
+          <a:ext cx="467591" cy="5529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="165" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1636567" y="3523183"/>
+          <a:ext cx="458934" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34844</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="182" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1645435" y="4242955"/>
+          <a:ext cx="441406" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606135</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="ひし形 233"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="484909" y="4693227"/>
+          <a:ext cx="952499" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640772" y="4883727"/>
+          <a:ext cx="646331" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>勝敗予想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="956933" y="4478885"/>
+          <a:ext cx="4226" cy="214342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28034</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277092" y="5533159"/>
+          <a:ext cx="1361533" cy="469727"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3299,8 +4536,15 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>同カードの勝率を求める</a:t>
+            <a:t>送信成功画面の表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3308,26 +4552,372 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126586</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="2"/>
+          <a:endCxn id="240" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="957859" y="5290704"/>
+          <a:ext cx="3300" cy="242455"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>130767</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>36558</xdr:rowOff>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251110</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="274" name="フローチャート : 磁気ディスク 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3536156" y="2631282"/>
-          <a:ext cx="1380924" cy="429464"/>
+          <a:off x="5108862" y="4035137"/>
+          <a:ext cx="649430" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701595</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="3"/>
+          <a:endCxn id="274" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650140" y="4239946"/>
+          <a:ext cx="458722" cy="3010"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320385</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="ひし形 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3489612" y="4684569"/>
+          <a:ext cx="952499" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="テキスト ボックス 276"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3645475" y="4883727"/>
+          <a:ext cx="646331" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>勝敗予想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13093</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="2"/>
+          <a:endCxn id="276" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961638" y="4474809"/>
+          <a:ext cx="4224" cy="209760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112568</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>164524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>694783</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281795" y="5541819"/>
+          <a:ext cx="1361533" cy="469727"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3370,8 +4960,15 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ホーム時の勝率を求める</a:t>
+            <a:t>送信成画面面の表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3379,26 +4976,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14017</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>164524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="2"/>
+          <a:endCxn id="279" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3962562" y="5282046"/>
+          <a:ext cx="3300" cy="259773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692727</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>46812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142674</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72276</xdr:rowOff>
+      <xdr:colOff>372342</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="3"/>
+          <a:endCxn id="213" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4641272" y="3519107"/>
+          <a:ext cx="458934" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122169</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="291" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3548063" y="3500437"/>
-          <a:ext cx="1380924" cy="429464"/>
+          <a:off x="3291396" y="2637727"/>
+          <a:ext cx="1341218" cy="442453"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3434,6 +5131,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -3441,7 +5148,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アウェイ時の勝率を求める</a:t>
+            <a:t>アウェイでの勝率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3450,93 +5157,102 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>270961</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157803</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>86463</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88605</xdr:rowOff>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79386</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="3"/>
+          <a:endCxn id="212" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3485649" y="4348803"/>
-          <a:ext cx="1387127" cy="430865"/>
+        <a:xfrm flipV="1">
+          <a:off x="4632614" y="2853425"/>
+          <a:ext cx="458931" cy="5529"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天候での勝率を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="3"/>
+          <a:endCxn id="209" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4632614" y="2160697"/>
+          <a:ext cx="450275" cy="13345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4784,10 +6500,10 @@
       <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="72">
+      <c r="P1" s="63">
         <v>42534</v>
       </c>
-      <c r="Q1" s="73"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -4804,11 +6520,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -4853,17 +6569,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -4874,15 +6590,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4893,15 +6609,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -4949,19 +6665,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
+      <c r="D10" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -4970,17 +6686,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -4989,17 +6705,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -5009,17 +6725,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5030,15 +6746,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5049,15 +6765,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5068,15 +6784,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5087,15 +6803,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5126,15 +6842,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5147,13 +6863,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5166,13 +6882,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5185,13 +6901,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5204,13 +6920,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5223,13 +6939,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5242,13 +6958,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5304,14 +7020,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="54"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="69" t="s">
+      <c r="K28" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5325,18 +7041,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="54"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64" t="s">
+      <c r="L29" s="76"/>
+      <c r="M29" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64" t="s">
+      <c r="N29" s="76"/>
+      <c r="O29" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="67"/>
+      <c r="P29" s="79"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5350,12 +7066,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="54"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="72"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5369,12 +7085,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="54"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5388,12 +7104,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="54"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="72"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5407,12 +7123,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5426,12 +7142,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5445,12 +7161,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="62"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5474,6 +7190,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="F19:L25"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="P1:Q1"/>
@@ -5481,12 +7203,6 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
-    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5504,8 +7220,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5520,36 +7236,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
@@ -5619,62 +7335,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="59">
-        <v>1</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5795,7 +7507,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="24"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="24"/>
       <c r="M14" s="2"/>
@@ -6245,7 +7959,6 @@
       <c r="C39" s="18"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -6259,17 +7972,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6304,36 +8017,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="19">
         <v>42534</v>
@@ -6402,54 +8115,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -7034,17 +8747,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7079,36 +8792,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="19">
         <v>42534</v>
@@ -7200,7 +8913,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -7253,18 +8966,18 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="85"/>
+      <c r="E9" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="87"/>
       <c r="G9" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -7278,18 +8991,18 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="85"/>
+      <c r="E10" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="87"/>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -7303,18 +9016,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="85"/>
+      <c r="E11" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="87"/>
       <c r="G11" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -7328,22 +9041,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="85"/>
+      <c r="E12" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="55" t="s">
         <v>45</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>46</v>
       </c>
       <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -7357,18 +9070,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="87"/>
+      <c r="G13" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -7382,18 +9095,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="85"/>
+      <c r="E14" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="87"/>
       <c r="G14" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -7407,14 +9120,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -7428,14 +9141,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -7449,14 +9162,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -7470,14 +9183,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -7491,14 +9204,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7512,14 +9225,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7533,14 +9246,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7554,14 +9267,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7575,14 +9288,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7596,14 +9309,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7617,14 +9330,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="87"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7638,14 +9351,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -7887,25 +9600,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -7922,12 +9622,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/C班様用_内部設計書.xlsx
+++ b/C班様用_内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -391,6 +391,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>管理者の入力情報処理</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>小山</t>
     <rPh sb="0" eb="2">
       <t>オヤマ</t>
@@ -526,6 +542,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>11.14.15</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,31 +556,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.4.5.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3.4.5.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザの選択情報処理</t>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,7 +630,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,12 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,12 +1280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,8 +1470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9571863" y="4059077"/>
-          <a:ext cx="750794" cy="452310"/>
+          <a:off x="9669278" y="3924861"/>
+          <a:ext cx="750794" cy="432828"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1714,26 +1697,197 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69985</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>64689</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2241</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154336</xdr:rowOff>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvPr id="136" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277803" y="1285621"/>
-          <a:ext cx="1350105" cy="436010"/>
+          <a:off x="430866" y="2290243"/>
+          <a:ext cx="1380924" cy="429464"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択された節のデータを抽出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264078</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264518</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="カギ線コネクタ 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="2"/>
+          <a:endCxn id="136" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1121328" y="1738611"/>
+          <a:ext cx="440" cy="551632"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1121328" y="2719707"/>
+          <a:ext cx="360" cy="690883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2239</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169608</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="430864" y="1315590"/>
+          <a:ext cx="1381807" cy="423021"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1785,29 +1939,276 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142570</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493017</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>126027</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35417</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2136080" y="2153430"/>
+          <a:ext cx="977913" cy="707573"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272761</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57530</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3487449" y="1246655"/>
+          <a:ext cx="1356394" cy="423021"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>決定ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273203</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57089</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3487891" y="5627955"/>
+          <a:ext cx="1355511" cy="468046"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送信成功画面の表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="180" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="179" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
+          <a:stCxn id="146" idx="2"/>
           <a:endCxn id="46" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="2402593"/>
-          <a:ext cx="4800" cy="239210"/>
+          <a:off x="4165646" y="1669676"/>
+          <a:ext cx="0" cy="249092"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1835,29 +2236,310 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124528</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>126027</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165646" y="2348232"/>
+          <a:ext cx="0" cy="283050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162387</xdr:rowOff>
+      <xdr:rowOff>36558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="183" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165646" y="3060746"/>
+          <a:ext cx="0" cy="427784"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165146</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165147</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
           <a:endCxn id="57" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165646" y="3917994"/>
+          <a:ext cx="1" cy="276028"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136271</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>194021</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="955801" y="3084256"/>
-          <a:ext cx="1499" cy="204063"/>
+          <a:off x="4136771" y="4624887"/>
+          <a:ext cx="57750" cy="1003068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213811</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172188</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428124" y="3410590"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>情報選択画面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493017</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149779</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="3"/>
+          <a:endCxn id="144" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1811790" y="2504975"/>
+          <a:ext cx="324290" cy="2242"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2509,16 +3191,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>78873</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35417</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260496</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69795</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157482</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2527,1973 +3209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="286691" y="2641803"/>
-          <a:ext cx="1341218" cy="442453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ホームでの勝率</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142570</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="277090" y="1953643"/>
-          <a:ext cx="1350819" cy="448950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>A:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>同カードの勝率</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67216</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25976</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="275034" y="3288319"/>
-          <a:ext cx="1361533" cy="469727"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>C:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天候での勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2086843" y="1974272"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60613</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34844</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="268431" y="4009158"/>
-          <a:ext cx="1377004" cy="469727"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355021</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="2649682"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355022</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095501" y="3316431"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天候</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121583</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39984</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="146" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="952500" y="1721631"/>
-          <a:ext cx="356" cy="232012"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124528</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>125660</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="176" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="2"/>
-          <a:endCxn id="81" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="955801" y="3758046"/>
-          <a:ext cx="1132" cy="251112"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2086841" y="4035136"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113281</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684068</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3282508" y="1281545"/>
-          <a:ext cx="1350105" cy="436010"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>決定ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138494</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13460</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="207" idx="2"/>
-          <a:endCxn id="206" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3957205" y="2398517"/>
-          <a:ext cx="4800" cy="239210"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11961</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13460</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158311</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="205" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="206" idx="2"/>
-          <a:endCxn id="208" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3960506" y="3080180"/>
-          <a:ext cx="1499" cy="204063"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122169</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3291396" y="2637727"/>
-          <a:ext cx="1341218" cy="442453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アウェイでの勝率</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>35908</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138494</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281795" y="1949567"/>
-          <a:ext cx="1350819" cy="448950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>A:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>同カードの勝率</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>110512</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3279739" y="3284243"/>
-          <a:ext cx="1361533" cy="469727"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>C:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天候での勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108492</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082889" y="1952878"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701595</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136604</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3273136" y="4005082"/>
-          <a:ext cx="1377004" cy="469727"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233793</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5091545" y="2645606"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372342</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82515</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5100206" y="3312355"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天候</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9016</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>35908</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="214" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="203" idx="2"/>
-          <a:endCxn id="207" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3957205" y="1717555"/>
-          <a:ext cx="356" cy="232012"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11961</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13093</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="2"/>
-          <a:endCxn id="210" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3960506" y="3753970"/>
-          <a:ext cx="1132" cy="251112"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="カギ線コネクタ 216"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="64" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1627909" y="2178118"/>
-          <a:ext cx="458934" cy="3973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83462</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="164" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1627909" y="2857501"/>
-          <a:ext cx="467591" cy="5529"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25976</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="3"/>
-          <a:endCxn id="165" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1636567" y="3523183"/>
-          <a:ext cx="458934" cy="1067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34844</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78999</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="230" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="182" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1645435" y="4242955"/>
-          <a:ext cx="441406" cy="1067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>606135</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="ひし形 233"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="484909" y="4693227"/>
-          <a:ext cx="952499" cy="597477"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="646331" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="640772" y="4883727"/>
-          <a:ext cx="646331" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>勝敗予想</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>125660</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129886</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="2"/>
-          <a:endCxn id="234" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="956933" y="4478885"/>
-          <a:ext cx="4226" cy="214342"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69274</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28034</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="277092" y="5533159"/>
-          <a:ext cx="1361533" cy="469727"/>
+          <a:off x="3475184" y="1918768"/>
+          <a:ext cx="1380924" cy="429464"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4536,15 +3253,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信成功画面の表示</a:t>
+            <a:t>同カードの勝率を求める</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4552,372 +3262,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>126586</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129886</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="234" idx="2"/>
-          <a:endCxn id="240" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="957859" y="5290704"/>
-          <a:ext cx="3300" cy="242455"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251110</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
+      <xdr:colOff>69795</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36558</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvPr id="49" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5108862" y="4035137"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701595</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77933</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="275" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="210" idx="3"/>
-          <a:endCxn id="274" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4650140" y="4239946"/>
-          <a:ext cx="458722" cy="3010"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320385</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>493566</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="ひし形 275"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3489612" y="4684569"/>
-          <a:ext cx="952499" cy="597477"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="646331" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="テキスト ボックス 276"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3645475" y="4883727"/>
-          <a:ext cx="646331" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>勝敗予想</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13093</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="278" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="210" idx="2"/>
-          <a:endCxn id="276" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3961638" y="4474809"/>
-          <a:ext cx="4224" cy="209760"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>694783</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281795" y="5541819"/>
-          <a:ext cx="1361533" cy="469727"/>
+          <a:off x="3475184" y="2631282"/>
+          <a:ext cx="1380924" cy="429464"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4960,15 +3324,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信成画面面の表示</a:t>
+            <a:t>ホーム時の勝率を求める</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4976,126 +3333,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14017</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="280" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="2"/>
-          <a:endCxn id="279" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3962562" y="5282046"/>
-          <a:ext cx="3300" cy="259773"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260496</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>46812</xdr:rowOff>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>372342</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47879</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="290" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="3"/>
-          <a:endCxn id="213" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4641272" y="3519107"/>
-          <a:ext cx="458934" cy="1067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122169</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
+      <xdr:colOff>69795</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="291" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="50" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3291396" y="2637727"/>
-          <a:ext cx="1341218" cy="442453"/>
+          <a:off x="3475184" y="3488530"/>
+          <a:ext cx="1380924" cy="429464"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5131,15 +3388,76 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>B</a:t>
+            <a:t>アウェイ時の勝率を求める</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257395</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72897</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3472083" y="4194022"/>
+          <a:ext cx="1387127" cy="430865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -5148,111 +3466,31 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アウェイでの勝率</a:t>
+            <a:t>天候での勝率を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>求める</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79386</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="294" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="291" idx="3"/>
-          <a:endCxn id="212" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4632614" y="2853425"/>
-          <a:ext cx="458931" cy="5529"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>87201</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="207" idx="3"/>
-          <a:endCxn id="209" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4632614" y="2160697"/>
-          <a:ext cx="450275" cy="13345"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6666,7 +4904,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
@@ -7220,8 +5458,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7242,7 +5480,7 @@
       <c r="B1" s="83"/>
       <c r="C1" s="84"/>
       <c r="D1" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
@@ -7259,13 +5497,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
@@ -7340,22 +5578,24 @@
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
-      <c r="E6" s="71" t="s">
-        <v>51</v>
+      <c r="E6" s="71">
+        <v>1</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="H6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -7373,17 +5613,19 @@
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="H7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
@@ -7507,9 +5749,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="24"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="9"/>
       <c r="L14" s="24"/>
       <c r="M14" s="2"/>
@@ -7959,6 +6199,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -8002,7 +6243,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8023,7 +6264,7 @@
       <c r="B1" s="83"/>
       <c r="C1" s="84"/>
       <c r="D1" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
@@ -8040,13 +6281,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="19">
         <v>42534</v>
@@ -8121,7 +6362,7 @@
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
@@ -8147,7 +6388,7 @@
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
       <c r="E7" s="71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
@@ -8798,7 +7039,7 @@
       <c r="B1" s="83"/>
       <c r="C1" s="84"/>
       <c r="D1" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
@@ -8815,13 +7056,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="19">
         <v>42534</v>
@@ -8913,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -8967,11 +7208,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -8992,11 +7233,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -9017,11 +7258,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -9042,14 +7283,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="26">
         <v>1</v>
@@ -9071,11 +7312,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -9096,11 +7337,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
